--- a/src/AppBundle/tmp/windows_server_report.xlsx
+++ b/src/AppBundle/tmp/windows_server_report.xlsx
@@ -28,9 +28,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>Date (YYYY/MM/DD)</t>
-  </si>
-  <si>
-    <t>2015-10-16</t>
   </si>
   <si>
     <t>2015-10-17</t>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>2015-11-16</t>
+  </si>
+  <si>
+    <t>2015-11-17</t>
   </si>
   <si>
     <t>Round Trip Time (ms)</t>
@@ -250,97 +250,97 @@
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>2015-10-16</c:v>
+                  <c:v>2015-10-17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2015-10-17</c:v>
+                  <c:v>2015-10-18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2015-10-18</c:v>
+                  <c:v>2015-10-19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2015-10-19</c:v>
+                  <c:v>2015-10-20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2015-10-20</c:v>
+                  <c:v>2015-10-21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2015-10-21</c:v>
+                  <c:v>2015-10-22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2015-10-22</c:v>
+                  <c:v>2015-10-23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2015-10-23</c:v>
+                  <c:v>2015-10-24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2015-10-24</c:v>
+                  <c:v>2015-10-25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2015-10-25</c:v>
+                  <c:v>2015-10-26</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015-10-26</c:v>
+                  <c:v>2015-10-27</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2015-10-27</c:v>
+                  <c:v>2015-10-28</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2015-10-28</c:v>
+                  <c:v>2015-10-29</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2015-10-29</c:v>
+                  <c:v>2015-10-30</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2015-10-30</c:v>
+                  <c:v>2015-10-31</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2015-10-31</c:v>
+                  <c:v>2015-11-01</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015-11-01</c:v>
+                  <c:v>2015-11-02</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2015-11-02</c:v>
+                  <c:v>2015-11-03</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2015-11-03</c:v>
+                  <c:v>2015-11-04</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2015-11-04</c:v>
+                  <c:v>2015-11-05</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2015-11-05</c:v>
+                  <c:v>2015-11-06</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2015-11-06</c:v>
+                  <c:v>2015-11-07</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2015-11-07</c:v>
+                  <c:v>2015-11-08</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2015-11-08</c:v>
+                  <c:v>2015-11-09</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2015-11-09</c:v>
+                  <c:v>2015-11-10</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2015-11-10</c:v>
+                  <c:v>2015-11-11</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2015-11-11</c:v>
+                  <c:v>2015-11-12</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2015-11-12</c:v>
+                  <c:v>2015-11-13</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2015-11-13</c:v>
+                  <c:v>2015-11-14</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2015-11-14</c:v>
+                  <c:v>2015-11-15</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2015-11-15</c:v>
+                  <c:v>2015-11-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -351,100 +351,100 @@
               <c:numCache>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
+                  <c:v>0.5600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.42</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.38</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.42</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.39</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.41</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.46</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.41</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.38</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.4</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.27</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.25</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.31</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.35</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0.41</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.37</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.41</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.34</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -591,9 +591,9 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>232_Server_C_Drives!$B$3:$O$3</c:f>
+              <c:f>232_Server_C_Drives!$B$3:$P$3</c:f>
               <c:numCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>499.66</c:v>
                 </c:pt>
@@ -634,6 +634,9 @@
                   <c:v>499.66</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>499.66</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>499.66</c:v>
                 </c:pt>
               </c:numCache>
@@ -659,9 +662,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>232_Server_C_Drives!$B$1:$N$1</c:f>
+              <c:f>232_Server_C_Drives!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>2015-11-03</c:v>
                 </c:pt>
@@ -700,15 +703,18 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2015-11-15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015-11-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>232_Server_C_Drives!$B$2:$O$2</c:f>
+              <c:f>232_Server_C_Drives!$B$2:$P$2</c:f>
               <c:numCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>13.75</c:v>
                 </c:pt>
@@ -749,7 +755,10 @@
                   <c:v>14.13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.86</c:v>
+                  <c:v>13.85</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -896,9 +905,9 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>232_server_D_drives!$B$3:$O$3</c:f>
+              <c:f>232_server_D_drives!$B$3:$P$3</c:f>
               <c:numCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>5119.87</c:v>
                 </c:pt>
@@ -939,6 +948,9 @@
                   <c:v>5119.87</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>5119.87</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>5119.87</c:v>
                 </c:pt>
               </c:numCache>
@@ -964,9 +976,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>232_server_D_drives!$B$1:$N$1</c:f>
+              <c:f>232_server_D_drives!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>2015-11-03</c:v>
                 </c:pt>
@@ -1005,15 +1017,18 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2015-11-15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015-11-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>232_server_D_drives!$B$2:$O$2</c:f>
+              <c:f>232_server_D_drives!$B$2:$P$2</c:f>
               <c:numCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1009.82</c:v>
                 </c:pt>
@@ -1054,7 +1069,10 @@
                   <c:v>1009.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1009.34</c:v>
+                  <c:v>1009.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1009.43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1205,97 +1223,97 @@
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>2015-10-16</c:v>
+                  <c:v>2015-10-17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2015-10-17</c:v>
+                  <c:v>2015-10-18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2015-10-18</c:v>
+                  <c:v>2015-10-19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2015-10-19</c:v>
+                  <c:v>2015-10-20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2015-10-20</c:v>
+                  <c:v>2015-10-21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2015-10-21</c:v>
+                  <c:v>2015-10-22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2015-10-22</c:v>
+                  <c:v>2015-10-23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2015-10-23</c:v>
+                  <c:v>2015-10-24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2015-10-24</c:v>
+                  <c:v>2015-10-25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2015-10-25</c:v>
+                  <c:v>2015-10-26</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015-10-26</c:v>
+                  <c:v>2015-10-27</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2015-10-27</c:v>
+                  <c:v>2015-10-28</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2015-10-28</c:v>
+                  <c:v>2015-10-29</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2015-10-29</c:v>
+                  <c:v>2015-10-30</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2015-10-30</c:v>
+                  <c:v>2015-10-31</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2015-10-31</c:v>
+                  <c:v>2015-11-01</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015-11-01</c:v>
+                  <c:v>2015-11-02</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2015-11-02</c:v>
+                  <c:v>2015-11-03</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2015-11-03</c:v>
+                  <c:v>2015-11-04</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2015-11-04</c:v>
+                  <c:v>2015-11-05</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2015-11-05</c:v>
+                  <c:v>2015-11-06</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2015-11-06</c:v>
+                  <c:v>2015-11-07</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2015-11-07</c:v>
+                  <c:v>2015-11-08</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2015-11-08</c:v>
+                  <c:v>2015-11-09</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2015-11-09</c:v>
+                  <c:v>2015-11-10</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2015-11-10</c:v>
+                  <c:v>2015-11-11</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2015-11-11</c:v>
+                  <c:v>2015-11-12</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2015-11-12</c:v>
+                  <c:v>2015-11-13</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2015-11-13</c:v>
+                  <c:v>2015-11-14</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2015-11-14</c:v>
+                  <c:v>2015-11-15</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2015-11-15</c:v>
+                  <c:v>2015-11-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1306,100 +1324,100 @@
               <c:numCache>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>1.05</c:v>
+                  <c:v>1.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.13</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.86</c:v>
+                  <c:v>1.16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.16</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.78</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.88</c:v>
+                  <c:v>1.04</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.04</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.04</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.77</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.78</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.76</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.92</c:v>
+                  <c:v>1.14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.14</c:v>
+                  <c:v>1.58</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1.58</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.58</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.88</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.76</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.63</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.87</c:v>
+                  <c:v>1.15</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.15</c:v>
+                  <c:v>1.52</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.52</c:v>
+                  <c:v>1.51</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.51</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.06</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>0.78</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.05</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="30">
                   <c:v>0.89</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.02</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.06</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.78</c:v>
-                </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.89</c:v>
+                  <c:v>1.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1550,97 +1568,97 @@
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>2015-10-16</c:v>
+                  <c:v>2015-10-17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2015-10-17</c:v>
+                  <c:v>2015-10-18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2015-10-18</c:v>
+                  <c:v>2015-10-19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2015-10-19</c:v>
+                  <c:v>2015-10-20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2015-10-20</c:v>
+                  <c:v>2015-10-21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2015-10-21</c:v>
+                  <c:v>2015-10-22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2015-10-22</c:v>
+                  <c:v>2015-10-23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2015-10-23</c:v>
+                  <c:v>2015-10-24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2015-10-24</c:v>
+                  <c:v>2015-10-25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2015-10-25</c:v>
+                  <c:v>2015-10-26</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015-10-26</c:v>
+                  <c:v>2015-10-27</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2015-10-27</c:v>
+                  <c:v>2015-10-28</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2015-10-28</c:v>
+                  <c:v>2015-10-29</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2015-10-29</c:v>
+                  <c:v>2015-10-30</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2015-10-30</c:v>
+                  <c:v>2015-10-31</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2015-10-31</c:v>
+                  <c:v>2015-11-01</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015-11-01</c:v>
+                  <c:v>2015-11-02</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2015-11-02</c:v>
+                  <c:v>2015-11-03</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2015-11-03</c:v>
+                  <c:v>2015-11-04</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2015-11-04</c:v>
+                  <c:v>2015-11-05</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2015-11-05</c:v>
+                  <c:v>2015-11-06</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2015-11-06</c:v>
+                  <c:v>2015-11-07</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2015-11-07</c:v>
+                  <c:v>2015-11-08</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2015-11-08</c:v>
+                  <c:v>2015-11-09</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2015-11-09</c:v>
+                  <c:v>2015-11-10</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2015-11-10</c:v>
+                  <c:v>2015-11-11</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2015-11-11</c:v>
+                  <c:v>2015-11-12</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2015-11-12</c:v>
+                  <c:v>2015-11-13</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2015-11-13</c:v>
+                  <c:v>2015-11-14</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2015-11-14</c:v>
+                  <c:v>2015-11-15</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2015-11-15</c:v>
+                  <c:v>2015-11-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1654,97 +1672,97 @@
                   <c:v>1.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.15</c:v>
+                  <c:v>0.6899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6899999999999999</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.8100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0.97</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.78</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.73</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.9399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.86</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.84</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="26">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.49</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>0.82</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.78</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.8100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.65</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.57</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.01</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.31</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.18</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.97</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.07</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.58</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.49</c:v>
-                </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.82</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.89</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1895,97 +1913,97 @@
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>2015-10-16</c:v>
+                  <c:v>2015-10-17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2015-10-17</c:v>
+                  <c:v>2015-10-18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2015-10-18</c:v>
+                  <c:v>2015-10-19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2015-10-19</c:v>
+                  <c:v>2015-10-20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2015-10-20</c:v>
+                  <c:v>2015-10-21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2015-10-21</c:v>
+                  <c:v>2015-10-22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2015-10-22</c:v>
+                  <c:v>2015-10-23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2015-10-23</c:v>
+                  <c:v>2015-10-24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2015-10-24</c:v>
+                  <c:v>2015-10-25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2015-10-25</c:v>
+                  <c:v>2015-10-26</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015-10-26</c:v>
+                  <c:v>2015-10-27</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2015-10-27</c:v>
+                  <c:v>2015-10-28</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2015-10-28</c:v>
+                  <c:v>2015-10-29</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2015-10-29</c:v>
+                  <c:v>2015-10-30</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2015-10-30</c:v>
+                  <c:v>2015-10-31</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2015-10-31</c:v>
+                  <c:v>2015-11-01</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015-11-01</c:v>
+                  <c:v>2015-11-02</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2015-11-02</c:v>
+                  <c:v>2015-11-03</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2015-11-03</c:v>
+                  <c:v>2015-11-04</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2015-11-04</c:v>
+                  <c:v>2015-11-05</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2015-11-05</c:v>
+                  <c:v>2015-11-06</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2015-11-06</c:v>
+                  <c:v>2015-11-07</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2015-11-07</c:v>
+                  <c:v>2015-11-08</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2015-11-08</c:v>
+                  <c:v>2015-11-09</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2015-11-09</c:v>
+                  <c:v>2015-11-10</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2015-11-10</c:v>
+                  <c:v>2015-11-11</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2015-11-11</c:v>
+                  <c:v>2015-11-12</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2015-11-12</c:v>
+                  <c:v>2015-11-13</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2015-11-13</c:v>
+                  <c:v>2015-11-14</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2015-11-14</c:v>
+                  <c:v>2015-11-15</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2015-11-15</c:v>
+                  <c:v>2015-11-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1996,100 +2014,100 @@
               <c:numCache>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>0.67</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.88</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.08</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.15</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="16">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0.15</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="20">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.07000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0.15</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="25">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.07000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.18</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2362,97 +2380,97 @@
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>2015-10-16</c:v>
+                  <c:v>2015-10-17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2015-10-17</c:v>
+                  <c:v>2015-10-18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2015-10-18</c:v>
+                  <c:v>2015-10-19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2015-10-19</c:v>
+                  <c:v>2015-10-20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2015-10-20</c:v>
+                  <c:v>2015-10-21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2015-10-21</c:v>
+                  <c:v>2015-10-22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2015-10-22</c:v>
+                  <c:v>2015-10-23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2015-10-23</c:v>
+                  <c:v>2015-10-24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2015-10-24</c:v>
+                  <c:v>2015-10-25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2015-10-25</c:v>
+                  <c:v>2015-10-26</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015-10-26</c:v>
+                  <c:v>2015-10-27</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2015-10-27</c:v>
+                  <c:v>2015-10-28</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2015-10-28</c:v>
+                  <c:v>2015-10-29</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2015-10-29</c:v>
+                  <c:v>2015-10-30</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2015-10-30</c:v>
+                  <c:v>2015-10-31</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2015-10-31</c:v>
+                  <c:v>2015-11-01</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015-11-01</c:v>
+                  <c:v>2015-11-02</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2015-11-02</c:v>
+                  <c:v>2015-11-03</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2015-11-03</c:v>
+                  <c:v>2015-11-04</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2015-11-04</c:v>
+                  <c:v>2015-11-05</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2015-11-05</c:v>
+                  <c:v>2015-11-06</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2015-11-06</c:v>
+                  <c:v>2015-11-07</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2015-11-07</c:v>
+                  <c:v>2015-11-08</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2015-11-08</c:v>
+                  <c:v>2015-11-09</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2015-11-09</c:v>
+                  <c:v>2015-11-10</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2015-11-10</c:v>
+                  <c:v>2015-11-11</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2015-11-11</c:v>
+                  <c:v>2015-11-12</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2015-11-12</c:v>
+                  <c:v>2015-11-13</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2015-11-13</c:v>
+                  <c:v>2015-11-14</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2015-11-14</c:v>
+                  <c:v>2015-11-15</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2015-11-15</c:v>
+                  <c:v>2015-11-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2463,100 +2481,100 @@
               <c:numCache>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>1368.67</c:v>
+                  <c:v>1392.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1392.35</c:v>
+                  <c:v>1394.72</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1394.72</c:v>
+                  <c:v>1322.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1322.08</c:v>
+                  <c:v>1238.61</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1238.61</c:v>
+                  <c:v>1236.29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1236.29</c:v>
+                  <c:v>1282.63</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1282.63</c:v>
+                  <c:v>1303.82</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1303.82</c:v>
+                  <c:v>1288.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1288.25</c:v>
+                  <c:v>1287.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1287.7</c:v>
+                  <c:v>1311.16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1311.16</c:v>
+                  <c:v>1323.28</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1323.28</c:v>
+                  <c:v>1309.55</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1309.55</c:v>
+                  <c:v>1174.72</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1174.72</c:v>
+                  <c:v>1235.03</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1235.03</c:v>
+                  <c:v>1264.95</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1264.95</c:v>
+                  <c:v>1326.8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1326.8</c:v>
+                  <c:v>1374.78</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1374.78</c:v>
+                  <c:v>1410.46</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1410.46</c:v>
+                  <c:v>1037.15</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1037.15</c:v>
+                  <c:v>1152.7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1152.7</c:v>
+                  <c:v>1159.56</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1159.56</c:v>
+                  <c:v>1108.23</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1108.23</c:v>
+                  <c:v>1111.76</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1111.76</c:v>
+                  <c:v>1193.94</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1193.94</c:v>
+                  <c:v>1275.17</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1275.17</c:v>
+                  <c:v>1414.03</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1414.03</c:v>
+                  <c:v>1463.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1463.5</c:v>
+                  <c:v>1025.46</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1025.46</c:v>
+                  <c:v>884.3200000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>884.3200000000001</c:v>
+                  <c:v>895.9</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>895.9</c:v>
+                  <c:v>963.72</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>957.03</c:v>
+                  <c:v>1050.43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2703,9 +2721,9 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>231_Memory!$B$3:$O$3</c:f>
+              <c:f>231_Memory!$B$3:$P$3</c:f>
               <c:numCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>10111.64</c:v>
                 </c:pt>
@@ -2746,6 +2764,9 @@
                   <c:v>10111.64</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>10111.64</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>10111.64</c:v>
                 </c:pt>
               </c:numCache>
@@ -2771,9 +2792,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>231_Memory!$B$1:$N$1</c:f>
+              <c:f>231_Memory!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>2015-11-03</c:v>
                 </c:pt>
@@ -2812,15 +2833,18 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2015-11-15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015-11-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>231_Memory!$B$2:$O$2</c:f>
+              <c:f>231_Memory!$B$2:$P$2</c:f>
               <c:numCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1112.73</c:v>
                 </c:pt>
@@ -2861,7 +2885,10 @@
                   <c:v>1101.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1108.62</c:v>
+                  <c:v>1109.82</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1121.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3008,9 +3035,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>231_CPU!$B$1:$N$1</c:f>
+              <c:f>231_CPU!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>2015-11-03</c:v>
                 </c:pt>
@@ -3049,15 +3076,18 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2015-11-15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015-11-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>231_CPU!$B$2:$O$2</c:f>
+              <c:f>231_CPU!$B$2:$P$2</c:f>
               <c:numCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3099,6 +3129,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3245,9 +3278,9 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>231_Memory!$B$3:$O$3</c:f>
+              <c:f>231_Memory!$B$3:$P$3</c:f>
               <c:numCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>10111.64</c:v>
                 </c:pt>
@@ -3288,6 +3321,9 @@
                   <c:v>10111.64</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>10111.64</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>10111.64</c:v>
                 </c:pt>
               </c:numCache>
@@ -3313,9 +3349,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>231_Memory!$B$1:$N$1</c:f>
+              <c:f>231_Memory!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>2015-11-03</c:v>
                 </c:pt>
@@ -3354,15 +3390,18 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2015-11-15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015-11-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>231_Memory!$B$2:$O$2</c:f>
+              <c:f>231_Memory!$B$2:$P$2</c:f>
               <c:numCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1112.73</c:v>
                 </c:pt>
@@ -3403,7 +3442,10 @@
                   <c:v>1101.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1108.62</c:v>
+                  <c:v>1109.82</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1121.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3550,9 +3592,9 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>231_Server_C_Drives!$B$3:$O$3</c:f>
+              <c:f>231_Server_C_Drives!$B$3:$P$3</c:f>
               <c:numCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>499.66</c:v>
                 </c:pt>
@@ -3593,6 +3635,9 @@
                   <c:v>499.66</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>499.66</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>499.66</c:v>
                 </c:pt>
               </c:numCache>
@@ -3618,9 +3663,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>231_Server_C_Drives!$B$1:$N$1</c:f>
+              <c:f>231_Server_C_Drives!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>2015-11-03</c:v>
                 </c:pt>
@@ -3659,15 +3704,18 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2015-11-15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015-11-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>231_Server_C_Drives!$B$2:$O$2</c:f>
+              <c:f>231_Server_C_Drives!$B$2:$P$2</c:f>
               <c:numCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>12.32</c:v>
                 </c:pt>
@@ -3708,6 +3756,9 @@
                   <c:v>12.11</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>12.09</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>12.09</c:v>
                 </c:pt>
               </c:numCache>
@@ -3846,7 +3897,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -3883,7 +3934,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -4068,7 +4119,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -4105,7 +4156,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -4142,7 +4193,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -4179,7 +4230,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -4505,8 +4556,8 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="24.708252" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="12.854004" bestFit="true" customWidth="true" style="0"/>
@@ -4646,100 +4697,100 @@
         <v>33</v>
       </c>
       <c r="B2">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="C2">
+        <v>0.38</v>
+      </c>
+      <c r="D2">
         <v>0.42</v>
       </c>
-      <c r="C2">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="D2">
-        <v>0.38</v>
-      </c>
       <c r="E2">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="F2">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="G2">
         <v>0.39</v>
       </c>
       <c r="H2">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="I2">
+        <v>0.46</v>
+      </c>
+      <c r="J2">
         <v>0.41</v>
       </c>
-      <c r="J2">
-        <v>0.46</v>
-      </c>
       <c r="K2">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="L2">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="M2">
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
       <c r="N2">
+        <v>0.24</v>
+      </c>
+      <c r="O2">
         <v>0.27</v>
-      </c>
-      <c r="O2">
-        <v>0.24</v>
       </c>
       <c r="P2">
         <v>0.27</v>
       </c>
       <c r="Q2">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="R2">
         <v>0.25</v>
       </c>
       <c r="S2">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="T2">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="U2">
-        <v>0.35</v>
+        <v>0.41</v>
       </c>
       <c r="V2">
+        <v>0.38</v>
+      </c>
+      <c r="W2">
+        <v>0.42</v>
+      </c>
+      <c r="X2">
+        <v>0.37</v>
+      </c>
+      <c r="Y2">
         <v>0.41</v>
       </c>
-      <c r="W2">
-        <v>0.38</v>
-      </c>
-      <c r="X2">
-        <v>0.42</v>
-      </c>
-      <c r="Y2">
+      <c r="Z2">
+        <v>0.39</v>
+      </c>
+      <c r="AA2">
+        <v>0.36</v>
+      </c>
+      <c r="AB2">
+        <v>0.32</v>
+      </c>
+      <c r="AC2">
         <v>0.37</v>
-      </c>
-      <c r="Z2">
-        <v>0.41</v>
-      </c>
-      <c r="AA2">
-        <v>0.39</v>
-      </c>
-      <c r="AB2">
-        <v>0.36</v>
-      </c>
-      <c r="AC2">
-        <v>0.32</v>
       </c>
       <c r="AD2">
         <v>0.37</v>
       </c>
       <c r="AE2">
-        <v>0.37</v>
+        <v>0.41</v>
       </c>
       <c r="AF2">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
       <c r="AG2">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
@@ -4764,7 +4815,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -4787,57 +4838,61 @@
     <col min="13" max="13" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="9.10" bestFit="true" style="0"/>
+    <col min="16" max="16" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="9.10" bestFit="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -4881,10 +4936,13 @@
         <v>14.13</v>
       </c>
       <c r="O2">
-        <v>13.86</v>
+        <v>13.85</v>
+      </c>
+      <c r="P2">
+        <v>13.81</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -4928,6 +4986,9 @@
         <v>499.66</v>
       </c>
       <c r="O3">
+        <v>499.66</v>
+      </c>
+      <c r="P3">
         <v>499.66</v>
       </c>
     </row>
@@ -4953,7 +5014,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -4976,57 +5037,61 @@
     <col min="13" max="13" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="9.10" bestFit="true" style="0"/>
+    <col min="16" max="16" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="9.10" bestFit="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -5070,10 +5135,13 @@
         <v>1009.3</v>
       </c>
       <c r="O2">
-        <v>1009.34</v>
+        <v>1009.35</v>
+      </c>
+      <c r="P2">
+        <v>1009.43</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -5117,6 +5185,9 @@
         <v>5119.87</v>
       </c>
       <c r="O3">
+        <v>5119.87</v>
+      </c>
+      <c r="P3">
         <v>5119.87</v>
       </c>
     </row>
@@ -5292,100 +5363,100 @@
         <v>33</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.13</v>
       </c>
       <c r="C2">
-        <v>1.13</v>
+        <v>0.86</v>
       </c>
       <c r="D2">
-        <v>0.86</v>
+        <v>1.16</v>
       </c>
       <c r="E2">
-        <v>1.16</v>
+        <v>0.97</v>
       </c>
       <c r="F2">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="G2">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="H2">
-        <v>0.88</v>
+        <v>1.04</v>
       </c>
       <c r="I2">
         <v>1.04</v>
       </c>
       <c r="J2">
-        <v>1.04</v>
+        <v>0.77</v>
       </c>
       <c r="K2">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="L2">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="M2">
-        <v>0.76</v>
+        <v>0.92</v>
       </c>
       <c r="N2">
-        <v>0.92</v>
+        <v>1.14</v>
       </c>
       <c r="O2">
-        <v>1.14</v>
+        <v>1.58</v>
       </c>
       <c r="P2">
         <v>1.58</v>
       </c>
       <c r="Q2">
-        <v>1.58</v>
+        <v>0.88</v>
       </c>
       <c r="R2">
-        <v>0.88</v>
+        <v>0.76</v>
       </c>
       <c r="S2">
-        <v>0.76</v>
+        <v>0.63</v>
       </c>
       <c r="T2">
-        <v>0.63</v>
+        <v>0.87</v>
       </c>
       <c r="U2">
-        <v>0.87</v>
+        <v>1.15</v>
       </c>
       <c r="V2">
-        <v>1.15</v>
+        <v>1.52</v>
       </c>
       <c r="W2">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X2">
-        <v>1.51</v>
+        <v>0.78</v>
       </c>
       <c r="Y2">
+        <v>1.05</v>
+      </c>
+      <c r="Z2">
+        <v>0.92</v>
+      </c>
+      <c r="AA2">
+        <v>0.89</v>
+      </c>
+      <c r="AB2">
+        <v>1.02</v>
+      </c>
+      <c r="AC2">
+        <v>1.75</v>
+      </c>
+      <c r="AD2">
+        <v>2.06</v>
+      </c>
+      <c r="AE2">
         <v>0.78</v>
       </c>
-      <c r="Z2">
-        <v>1.05</v>
-      </c>
-      <c r="AA2">
-        <v>0.92</v>
-      </c>
-      <c r="AB2">
+      <c r="AF2">
         <v>0.89</v>
       </c>
-      <c r="AC2">
-        <v>1.02</v>
-      </c>
-      <c r="AD2">
-        <v>1.75</v>
-      </c>
-      <c r="AE2">
-        <v>2.06</v>
-      </c>
-      <c r="AF2">
-        <v>0.78</v>
-      </c>
       <c r="AG2">
-        <v>0.89</v>
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>
@@ -5420,12 +5491,12 @@
   <cols>
     <col min="1" max="1" width="24.708252" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="12.854004" bestFit="true" customWidth="true" style="0"/>
@@ -5436,8 +5507,8 @@
     <col min="16" max="16" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="12.854004" bestFit="true" customWidth="true" style="0"/>
@@ -5563,97 +5634,97 @@
         <v>1.15</v>
       </c>
       <c r="C2">
-        <v>1.15</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D2">
-        <v>0.6899999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="E2">
+        <v>0.78</v>
+      </c>
+      <c r="F2">
+        <v>0.73</v>
+      </c>
+      <c r="G2">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H2">
+        <v>0.86</v>
+      </c>
+      <c r="I2">
+        <v>0.96</v>
+      </c>
+      <c r="J2">
+        <v>0.66</v>
+      </c>
+      <c r="K2">
+        <v>0.79</v>
+      </c>
+      <c r="L2">
+        <v>0.8</v>
+      </c>
+      <c r="M2">
+        <v>0.84</v>
+      </c>
+      <c r="N2">
+        <v>0.9</v>
+      </c>
+      <c r="O2">
+        <v>1.42</v>
+      </c>
+      <c r="P2">
+        <v>1.3</v>
+      </c>
+      <c r="Q2">
+        <v>0.82</v>
+      </c>
+      <c r="R2">
+        <v>0.78</v>
+      </c>
+      <c r="S2">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="T2">
+        <v>0.92</v>
+      </c>
+      <c r="U2">
+        <v>1.1</v>
+      </c>
+      <c r="V2">
+        <v>1.65</v>
+      </c>
+      <c r="W2">
+        <v>1.57</v>
+      </c>
+      <c r="X2">
+        <v>1.01</v>
+      </c>
+      <c r="Y2">
+        <v>1.31</v>
+      </c>
+      <c r="Z2">
+        <v>1.18</v>
+      </c>
+      <c r="AA2">
         <v>0.97</v>
       </c>
-      <c r="F2">
-        <v>0.78</v>
-      </c>
-      <c r="G2">
-        <v>0.73</v>
-      </c>
-      <c r="H2">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="I2">
-        <v>0.86</v>
-      </c>
-      <c r="J2">
-        <v>0.96</v>
-      </c>
-      <c r="K2">
-        <v>0.66</v>
-      </c>
-      <c r="L2">
-        <v>0.79</v>
-      </c>
-      <c r="M2">
-        <v>0.8</v>
-      </c>
-      <c r="N2">
-        <v>0.84</v>
-      </c>
-      <c r="O2">
-        <v>0.9</v>
-      </c>
-      <c r="P2">
-        <v>1.42</v>
-      </c>
-      <c r="Q2">
-        <v>1.3</v>
-      </c>
-      <c r="R2">
+      <c r="AB2">
+        <v>1.07</v>
+      </c>
+      <c r="AC2">
+        <v>1.58</v>
+      </c>
+      <c r="AD2">
+        <v>2.49</v>
+      </c>
+      <c r="AE2">
         <v>0.82</v>
       </c>
-      <c r="S2">
-        <v>0.78</v>
-      </c>
-      <c r="T2">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="U2">
-        <v>0.92</v>
-      </c>
-      <c r="V2">
-        <v>1.1</v>
-      </c>
-      <c r="W2">
-        <v>1.65</v>
-      </c>
-      <c r="X2">
-        <v>1.57</v>
-      </c>
-      <c r="Y2">
-        <v>1.01</v>
-      </c>
-      <c r="Z2">
-        <v>1.31</v>
-      </c>
-      <c r="AA2">
-        <v>1.18</v>
-      </c>
-      <c r="AB2">
-        <v>0.97</v>
-      </c>
-      <c r="AC2">
-        <v>1.07</v>
-      </c>
-      <c r="AD2">
-        <v>1.58</v>
-      </c>
-      <c r="AE2">
-        <v>2.49</v>
-      </c>
       <c r="AF2">
-        <v>0.82</v>
+        <v>0.91</v>
       </c>
       <c r="AG2">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
     </row>
   </sheetData>
@@ -5708,8 +5779,8 @@
     <col min="20" max="20" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="24" max="24" width="23.422852" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="23.422852" bestFit="true" customWidth="true" style="0"/>
+    <col min="24" max="24" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="25" max="25" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="27" max="27" width="12.854004" bestFit="true" customWidth="true" style="0"/>
@@ -5828,100 +5899,100 @@
         <v>34</v>
       </c>
       <c r="B2">
-        <v>0.67</v>
+        <v>0.05</v>
       </c>
       <c r="C2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D2">
+        <v>0.88</v>
+      </c>
+      <c r="E2">
+        <v>0.48</v>
+      </c>
+      <c r="F2">
+        <v>0.04</v>
+      </c>
+      <c r="G2">
+        <v>0.08</v>
+      </c>
+      <c r="H2">
+        <v>0.15</v>
+      </c>
+      <c r="I2">
+        <v>0.01</v>
+      </c>
+      <c r="J2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0.88</v>
-      </c>
-      <c r="F2">
-        <v>0.48</v>
-      </c>
-      <c r="G2">
-        <v>0.04</v>
-      </c>
-      <c r="H2">
+      <c r="K2">
+        <v>0.15</v>
+      </c>
+      <c r="L2">
+        <v>0.33</v>
+      </c>
+      <c r="M2">
         <v>0.08</v>
       </c>
-      <c r="I2">
+      <c r="N2">
+        <v>0.17</v>
+      </c>
+      <c r="O2">
         <v>0.15</v>
       </c>
-      <c r="J2">
-        <v>0.01</v>
-      </c>
-      <c r="K2">
+      <c r="P2">
+        <v>0.11</v>
+      </c>
+      <c r="Q2">
         <v>0</v>
       </c>
-      <c r="L2">
+      <c r="R2">
+        <v>0.33</v>
+      </c>
+      <c r="S2">
+        <v>0.47</v>
+      </c>
+      <c r="T2">
+        <v>1.26</v>
+      </c>
+      <c r="U2">
         <v>0.15</v>
       </c>
-      <c r="M2">
-        <v>0.33</v>
-      </c>
-      <c r="N2">
-        <v>0.08</v>
-      </c>
-      <c r="O2">
-        <v>0.17</v>
-      </c>
-      <c r="P2">
+      <c r="V2">
+        <v>0.23</v>
+      </c>
+      <c r="W2">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="X2">
+        <v>0.02</v>
+      </c>
+      <c r="Y2">
+        <v>1.7</v>
+      </c>
+      <c r="Z2">
         <v>0.15</v>
       </c>
-      <c r="Q2">
-        <v>0.11</v>
-      </c>
-      <c r="R2">
+      <c r="AA2">
+        <v>1.4</v>
+      </c>
+      <c r="AB2">
+        <v>1.5</v>
+      </c>
+      <c r="AC2">
+        <v>0.96</v>
+      </c>
+      <c r="AD2">
         <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0.33</v>
-      </c>
-      <c r="T2">
-        <v>0.47</v>
-      </c>
-      <c r="U2">
-        <v>1.26</v>
-      </c>
-      <c r="V2">
-        <v>0.15</v>
-      </c>
-      <c r="W2">
-        <v>0.23</v>
-      </c>
-      <c r="X2">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Y2">
-        <v>0.02</v>
-      </c>
-      <c r="Z2">
-        <v>1.7</v>
-      </c>
-      <c r="AA2">
-        <v>0.15</v>
-      </c>
-      <c r="AB2">
-        <v>1.4</v>
-      </c>
-      <c r="AC2">
-        <v>1.5</v>
-      </c>
-      <c r="AD2">
-        <v>0.96</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG2">
-        <v>2.18</v>
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
@@ -5983,8 +6054,8 @@
     <col min="27" max="27" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="28" max="28" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="29" max="29" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="30" max="30" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="31" max="31" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="30" max="30" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="31" max="31" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="32" max="32" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="33" max="33" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="34" max="34" width="9.10" bestFit="true" style="0"/>
@@ -6096,100 +6167,100 @@
         <v>35</v>
       </c>
       <c r="B2">
-        <v>1368.67</v>
+        <v>1392.35</v>
       </c>
       <c r="C2">
-        <v>1392.35</v>
+        <v>1394.72</v>
       </c>
       <c r="D2">
-        <v>1394.72</v>
+        <v>1322.08</v>
       </c>
       <c r="E2">
-        <v>1322.08</v>
+        <v>1238.61</v>
       </c>
       <c r="F2">
-        <v>1238.61</v>
+        <v>1236.29</v>
       </c>
       <c r="G2">
-        <v>1236.29</v>
+        <v>1282.63</v>
       </c>
       <c r="H2">
-        <v>1282.63</v>
+        <v>1303.82</v>
       </c>
       <c r="I2">
-        <v>1303.82</v>
+        <v>1288.25</v>
       </c>
       <c r="J2">
-        <v>1288.25</v>
+        <v>1287.7</v>
       </c>
       <c r="K2">
-        <v>1287.7</v>
+        <v>1311.16</v>
       </c>
       <c r="L2">
-        <v>1311.16</v>
+        <v>1323.28</v>
       </c>
       <c r="M2">
-        <v>1323.28</v>
+        <v>1309.55</v>
       </c>
       <c r="N2">
-        <v>1309.55</v>
+        <v>1174.72</v>
       </c>
       <c r="O2">
-        <v>1174.72</v>
+        <v>1235.03</v>
       </c>
       <c r="P2">
-        <v>1235.03</v>
+        <v>1264.95</v>
       </c>
       <c r="Q2">
-        <v>1264.95</v>
+        <v>1326.8</v>
       </c>
       <c r="R2">
-        <v>1326.8</v>
+        <v>1374.78</v>
       </c>
       <c r="S2">
-        <v>1374.78</v>
+        <v>1410.46</v>
       </c>
       <c r="T2">
-        <v>1410.46</v>
+        <v>1037.15</v>
       </c>
       <c r="U2">
-        <v>1037.15</v>
+        <v>1152.7</v>
       </c>
       <c r="V2">
-        <v>1152.7</v>
+        <v>1159.56</v>
       </c>
       <c r="W2">
-        <v>1159.56</v>
+        <v>1108.23</v>
       </c>
       <c r="X2">
-        <v>1108.23</v>
+        <v>1111.76</v>
       </c>
       <c r="Y2">
-        <v>1111.76</v>
+        <v>1193.94</v>
       </c>
       <c r="Z2">
-        <v>1193.94</v>
+        <v>1275.17</v>
       </c>
       <c r="AA2">
-        <v>1275.17</v>
+        <v>1414.03</v>
       </c>
       <c r="AB2">
-        <v>1414.03</v>
+        <v>1463.5</v>
       </c>
       <c r="AC2">
-        <v>1463.5</v>
+        <v>1025.46</v>
       </c>
       <c r="AD2">
-        <v>1025.46</v>
+        <v>884.3200000000001</v>
       </c>
       <c r="AE2">
-        <v>884.3200000000001</v>
+        <v>895.9</v>
       </c>
       <c r="AF2">
-        <v>895.9</v>
+        <v>963.72</v>
       </c>
       <c r="AG2">
-        <v>957.03</v>
+        <v>1050.43</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -6315,7 +6386,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -6338,57 +6409,61 @@
     <col min="13" max="13" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="9.10" bestFit="true" style="0"/>
+    <col min="16" max="16" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="9.10" bestFit="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -6432,10 +6507,13 @@
         <v>1101.5</v>
       </c>
       <c r="O2">
-        <v>1108.62</v>
+        <v>1109.82</v>
+      </c>
+      <c r="P2">
+        <v>1121.67</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -6479,6 +6557,9 @@
         <v>10111.64</v>
       </c>
       <c r="O3">
+        <v>10111.64</v>
+      </c>
+      <c r="P3">
         <v>10111.64</v>
       </c>
     </row>
@@ -6504,7 +6585,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -6527,57 +6608,61 @@
     <col min="13" max="13" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="9.10" bestFit="true" style="0"/>
+    <col min="16" max="16" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="9.10" bestFit="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -6622,6 +6707,9 @@
       </c>
       <c r="O2">
         <v>0.01</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6646,7 +6734,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -6669,57 +6757,61 @@
     <col min="13" max="13" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="9.10" bestFit="true" style="0"/>
+    <col min="16" max="16" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="9.10" bestFit="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -6763,10 +6855,13 @@
         <v>1101.5</v>
       </c>
       <c r="O2">
-        <v>1108.62</v>
+        <v>1109.82</v>
+      </c>
+      <c r="P2">
+        <v>1121.67</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -6810,6 +6905,9 @@
         <v>10111.64</v>
       </c>
       <c r="O3">
+        <v>10111.64</v>
+      </c>
+      <c r="P3">
         <v>10111.64</v>
       </c>
     </row>
@@ -6835,7 +6933,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -6858,57 +6956,61 @@
     <col min="13" max="13" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="9.10" bestFit="true" style="0"/>
+    <col min="16" max="16" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="9.10" bestFit="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -6954,8 +7056,11 @@
       <c r="O2">
         <v>12.09</v>
       </c>
+      <c r="P2">
+        <v>12.09</v>
+      </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -6999,6 +7104,9 @@
         <v>499.66</v>
       </c>
       <c r="O3">
+        <v>499.66</v>
+      </c>
+      <c r="P3">
         <v>499.66</v>
       </c>
     </row>

--- a/src/AppBundle/tmp/windows_server_report.xlsx
+++ b/src/AppBundle/tmp/windows_server_report.xlsx
@@ -25,24 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>Date (YYYY/MM/DD)</t>
-  </si>
-  <si>
-    <t>2015-10-17</t>
-  </si>
-  <si>
-    <t>2015-10-18</t>
-  </si>
-  <si>
-    <t>2015-10-19</t>
-  </si>
-  <si>
-    <t>2015-10-20</t>
-  </si>
-  <si>
-    <t>2015-10-21</t>
   </si>
   <si>
     <t>2015-10-22</t>
@@ -246,100 +231,85 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>230_Ping!$B$1:$AF$1</c:f>
+              <c:f>230_Ping!$B$1:$AA$1</c:f>
               <c:strCache>
-                <c:ptCount val="31"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>2015-10-17</c:v>
+                  <c:v>2015-10-22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2015-10-18</c:v>
+                  <c:v>2015-10-23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2015-10-19</c:v>
+                  <c:v>2015-10-24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2015-10-20</c:v>
+                  <c:v>2015-10-25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2015-10-21</c:v>
+                  <c:v>2015-10-26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2015-10-22</c:v>
+                  <c:v>2015-10-27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2015-10-23</c:v>
+                  <c:v>2015-10-28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2015-10-24</c:v>
+                  <c:v>2015-10-29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2015-10-25</c:v>
+                  <c:v>2015-10-30</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2015-10-26</c:v>
+                  <c:v>2015-10-31</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015-10-27</c:v>
+                  <c:v>2015-11-01</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2015-10-28</c:v>
+                  <c:v>2015-11-02</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2015-10-29</c:v>
+                  <c:v>2015-11-03</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2015-10-30</c:v>
+                  <c:v>2015-11-04</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2015-10-31</c:v>
+                  <c:v>2015-11-05</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2015-11-01</c:v>
+                  <c:v>2015-11-06</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015-11-02</c:v>
+                  <c:v>2015-11-07</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2015-11-03</c:v>
+                  <c:v>2015-11-08</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2015-11-04</c:v>
+                  <c:v>2015-11-09</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2015-11-05</c:v>
+                  <c:v>2015-11-10</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2015-11-06</c:v>
+                  <c:v>2015-11-11</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2015-11-07</c:v>
+                  <c:v>2015-11-12</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2015-11-08</c:v>
+                  <c:v>2015-11-13</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2015-11-09</c:v>
+                  <c:v>2015-11-14</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2015-11-10</c:v>
+                  <c:v>2015-11-15</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2015-11-11</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2015-11-12</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2015-11-13</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2015-11-14</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2015-11-15</c:v>
-                </c:pt>
-                <c:pt idx="30">
                   <c:v>2015-11-16</c:v>
                 </c:pt>
               </c:strCache>
@@ -347,103 +317,88 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>230_Ping!$B$2:$AG$2</c:f>
+              <c:f>230_Ping!$B$2:$AB$2</c:f>
               <c:numCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>0.5600000000000001</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.38</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0.42</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="17">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0.39</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.31</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.41</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.38</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.42</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0.41</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.39</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.36</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="31">
                   <c:v>0.33</c:v>
                 </c:pt>
               </c:numCache>
@@ -1219,100 +1174,85 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>231_Ping!$B$1:$AF$1</c:f>
+              <c:f>231_Ping!$B$1:$AA$1</c:f>
               <c:strCache>
-                <c:ptCount val="31"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>2015-10-17</c:v>
+                  <c:v>2015-10-22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2015-10-18</c:v>
+                  <c:v>2015-10-23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2015-10-19</c:v>
+                  <c:v>2015-10-24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2015-10-20</c:v>
+                  <c:v>2015-10-25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2015-10-21</c:v>
+                  <c:v>2015-10-26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2015-10-22</c:v>
+                  <c:v>2015-10-27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2015-10-23</c:v>
+                  <c:v>2015-10-28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2015-10-24</c:v>
+                  <c:v>2015-10-29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2015-10-25</c:v>
+                  <c:v>2015-10-30</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2015-10-26</c:v>
+                  <c:v>2015-10-31</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015-10-27</c:v>
+                  <c:v>2015-11-01</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2015-10-28</c:v>
+                  <c:v>2015-11-02</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2015-10-29</c:v>
+                  <c:v>2015-11-03</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2015-10-30</c:v>
+                  <c:v>2015-11-04</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2015-10-31</c:v>
+                  <c:v>2015-11-05</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2015-11-01</c:v>
+                  <c:v>2015-11-06</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015-11-02</c:v>
+                  <c:v>2015-11-07</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2015-11-03</c:v>
+                  <c:v>2015-11-08</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2015-11-04</c:v>
+                  <c:v>2015-11-09</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2015-11-05</c:v>
+                  <c:v>2015-11-10</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2015-11-06</c:v>
+                  <c:v>2015-11-11</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2015-11-07</c:v>
+                  <c:v>2015-11-12</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2015-11-08</c:v>
+                  <c:v>2015-11-13</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2015-11-09</c:v>
+                  <c:v>2015-11-14</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2015-11-10</c:v>
+                  <c:v>2015-11-15</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2015-11-11</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2015-11-12</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2015-11-13</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2015-11-14</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2015-11-15</c:v>
-                </c:pt>
-                <c:pt idx="30">
                   <c:v>2015-11-16</c:v>
                 </c:pt>
               </c:strCache>
@@ -1320,103 +1260,88 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>231_Ping!$B$2:$AG$2</c:f>
+              <c:f>231_Ping!$B$2:$AB$2</c:f>
               <c:numCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>1.13</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86</c:v>
+                  <c:v>1.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.16</c:v>
+                  <c:v>1.04</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.88</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.04</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.04</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.77</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.51</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0.78</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.76</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0.92</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.58</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.58</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.88</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.76</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.87</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.15</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.52</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.51</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.06</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0.78</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.05</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.02</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.06</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.78</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.89</c:v>
-                </c:pt>
-                <c:pt idx="31">
                   <c:v>1.26</c:v>
                 </c:pt>
               </c:numCache>
@@ -1564,100 +1489,85 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>232_Server_Ping!$B$1:$AF$1</c:f>
+              <c:f>232_Server_Ping!$B$1:$AA$1</c:f>
               <c:strCache>
-                <c:ptCount val="31"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>2015-10-17</c:v>
+                  <c:v>2015-10-22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2015-10-18</c:v>
+                  <c:v>2015-10-23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2015-10-19</c:v>
+                  <c:v>2015-10-24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2015-10-20</c:v>
+                  <c:v>2015-10-25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2015-10-21</c:v>
+                  <c:v>2015-10-26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2015-10-22</c:v>
+                  <c:v>2015-10-27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2015-10-23</c:v>
+                  <c:v>2015-10-28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2015-10-24</c:v>
+                  <c:v>2015-10-29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2015-10-25</c:v>
+                  <c:v>2015-10-30</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2015-10-26</c:v>
+                  <c:v>2015-10-31</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015-10-27</c:v>
+                  <c:v>2015-11-01</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2015-10-28</c:v>
+                  <c:v>2015-11-02</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2015-10-29</c:v>
+                  <c:v>2015-11-03</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2015-10-30</c:v>
+                  <c:v>2015-11-04</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2015-10-31</c:v>
+                  <c:v>2015-11-05</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2015-11-01</c:v>
+                  <c:v>2015-11-06</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015-11-02</c:v>
+                  <c:v>2015-11-07</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2015-11-03</c:v>
+                  <c:v>2015-11-08</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2015-11-04</c:v>
+                  <c:v>2015-11-09</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2015-11-05</c:v>
+                  <c:v>2015-11-10</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2015-11-06</c:v>
+                  <c:v>2015-11-11</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2015-11-07</c:v>
+                  <c:v>2015-11-12</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2015-11-08</c:v>
+                  <c:v>2015-11-13</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2015-11-09</c:v>
+                  <c:v>2015-11-14</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2015-11-10</c:v>
+                  <c:v>2015-11-15</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2015-11-11</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2015-11-12</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2015-11-13</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2015-11-14</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2015-11-15</c:v>
-                </c:pt>
-                <c:pt idx="30">
                   <c:v>2015-11-16</c:v>
                 </c:pt>
               </c:strCache>
@@ -1665,103 +1575,88 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>232_Server_Ping!$B$2:$AG$2</c:f>
+              <c:f>232_Server_Ping!$B$2:$AB$2</c:f>
               <c:numCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>1.15</c:v>
+                  <c:v>0.9399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6899999999999999</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.8100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.97</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.78</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.73</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.9399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.86</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.84</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="21">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.49</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0.82</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.78</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.8100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.65</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.57</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.01</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.31</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.18</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.97</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.07</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.58</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.49</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.82</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.91</c:v>
-                </c:pt>
-                <c:pt idx="31">
                   <c:v>0.91</c:v>
                 </c:pt>
               </c:numCache>
@@ -1909,100 +1804,85 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>232_Server_CPU!$B$1:$AF$1</c:f>
+              <c:f>232_Server_CPU!$B$1:$AA$1</c:f>
               <c:strCache>
-                <c:ptCount val="31"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>2015-10-17</c:v>
+                  <c:v>2015-10-22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2015-10-18</c:v>
+                  <c:v>2015-10-23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2015-10-19</c:v>
+                  <c:v>2015-10-24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2015-10-20</c:v>
+                  <c:v>2015-10-25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2015-10-21</c:v>
+                  <c:v>2015-10-26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2015-10-22</c:v>
+                  <c:v>2015-10-27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2015-10-23</c:v>
+                  <c:v>2015-10-28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2015-10-24</c:v>
+                  <c:v>2015-10-29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2015-10-25</c:v>
+                  <c:v>2015-10-30</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2015-10-26</c:v>
+                  <c:v>2015-10-31</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015-10-27</c:v>
+                  <c:v>2015-11-01</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2015-10-28</c:v>
+                  <c:v>2015-11-02</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2015-10-29</c:v>
+                  <c:v>2015-11-03</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2015-10-30</c:v>
+                  <c:v>2015-11-04</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2015-10-31</c:v>
+                  <c:v>2015-11-05</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2015-11-01</c:v>
+                  <c:v>2015-11-06</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015-11-02</c:v>
+                  <c:v>2015-11-07</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2015-11-03</c:v>
+                  <c:v>2015-11-08</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2015-11-04</c:v>
+                  <c:v>2015-11-09</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2015-11-05</c:v>
+                  <c:v>2015-11-10</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2015-11-06</c:v>
+                  <c:v>2015-11-11</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2015-11-07</c:v>
+                  <c:v>2015-11-12</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2015-11-08</c:v>
+                  <c:v>2015-11-13</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2015-11-09</c:v>
+                  <c:v>2015-11-14</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2015-11-10</c:v>
+                  <c:v>2015-11-15</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2015-11-11</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2015-11-12</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2015-11-13</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2015-11-14</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2015-11-15</c:v>
-                </c:pt>
-                <c:pt idx="30">
                   <c:v>2015-11-16</c:v>
                 </c:pt>
               </c:strCache>
@@ -2010,103 +1890,88 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>232_Server_CPU!$B$2:$AG$2</c:f>
+              <c:f>232_Server_CPU!$B$2:$AB$2</c:f>
               <c:numCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>0.05</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.88</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.48</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.04</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.08</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.15</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.15</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.11</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.33</c:v>
+                  <c:v>0.07000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.47</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.26</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.23</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.07000000000000001</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.02</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="31">
                   <c:v>0.35</c:v>
                 </c:pt>
               </c:numCache>
@@ -2254,9 +2119,9 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>232_Server_Memory!$B$3:$AG$3</c:f>
+              <c:f>232_Server_Memory!$B$3:$AB$3</c:f>
               <c:numCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>11839.65</c:v>
                 </c:pt>
@@ -2336,21 +2201,6 @@
                   <c:v>11839.65</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11839.65</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>11839.65</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>11839.65</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>11839.65</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>11839.65</c:v>
-                </c:pt>
-                <c:pt idx="31">
                   <c:v>11839.65</c:v>
                 </c:pt>
               </c:numCache>
@@ -2376,100 +2226,85 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>232_Server_Memory!$B$1:$AF$1</c:f>
+              <c:f>232_Server_Memory!$B$1:$AA$1</c:f>
               <c:strCache>
-                <c:ptCount val="31"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>2015-10-17</c:v>
+                  <c:v>2015-10-22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2015-10-18</c:v>
+                  <c:v>2015-10-23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2015-10-19</c:v>
+                  <c:v>2015-10-24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2015-10-20</c:v>
+                  <c:v>2015-10-25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2015-10-21</c:v>
+                  <c:v>2015-10-26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2015-10-22</c:v>
+                  <c:v>2015-10-27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2015-10-23</c:v>
+                  <c:v>2015-10-28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2015-10-24</c:v>
+                  <c:v>2015-10-29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2015-10-25</c:v>
+                  <c:v>2015-10-30</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2015-10-26</c:v>
+                  <c:v>2015-10-31</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015-10-27</c:v>
+                  <c:v>2015-11-01</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2015-10-28</c:v>
+                  <c:v>2015-11-02</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2015-10-29</c:v>
+                  <c:v>2015-11-03</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2015-10-30</c:v>
+                  <c:v>2015-11-04</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2015-10-31</c:v>
+                  <c:v>2015-11-05</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2015-11-01</c:v>
+                  <c:v>2015-11-06</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015-11-02</c:v>
+                  <c:v>2015-11-07</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2015-11-03</c:v>
+                  <c:v>2015-11-08</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2015-11-04</c:v>
+                  <c:v>2015-11-09</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2015-11-05</c:v>
+                  <c:v>2015-11-10</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2015-11-06</c:v>
+                  <c:v>2015-11-11</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2015-11-07</c:v>
+                  <c:v>2015-11-12</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2015-11-08</c:v>
+                  <c:v>2015-11-13</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2015-11-09</c:v>
+                  <c:v>2015-11-14</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2015-11-10</c:v>
+                  <c:v>2015-11-15</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2015-11-11</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2015-11-12</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2015-11-13</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2015-11-14</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2015-11-15</c:v>
-                </c:pt>
-                <c:pt idx="30">
                   <c:v>2015-11-16</c:v>
                 </c:pt>
               </c:strCache>
@@ -2477,103 +2312,88 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>232_Server_Memory!$B$2:$AG$2</c:f>
+              <c:f>232_Server_Memory!$B$2:$AB$2</c:f>
               <c:numCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>1392.35</c:v>
+                  <c:v>1282.63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1394.72</c:v>
+                  <c:v>1303.82</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1322.08</c:v>
+                  <c:v>1288.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1238.61</c:v>
+                  <c:v>1287.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1236.29</c:v>
+                  <c:v>1311.16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1282.63</c:v>
+                  <c:v>1323.28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1303.82</c:v>
+                  <c:v>1309.55</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1288.25</c:v>
+                  <c:v>1174.72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1287.7</c:v>
+                  <c:v>1235.03</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1311.16</c:v>
+                  <c:v>1264.95</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1323.28</c:v>
+                  <c:v>1326.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1309.55</c:v>
+                  <c:v>1374.78</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1174.72</c:v>
+                  <c:v>1410.46</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1235.03</c:v>
+                  <c:v>1037.15</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1264.95</c:v>
+                  <c:v>1152.7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1326.8</c:v>
+                  <c:v>1159.56</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1374.78</c:v>
+                  <c:v>1108.23</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1410.46</c:v>
+                  <c:v>1111.76</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1037.15</c:v>
+                  <c:v>1193.94</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1152.7</c:v>
+                  <c:v>1275.17</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1159.56</c:v>
+                  <c:v>1414.03</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1108.23</c:v>
+                  <c:v>1463.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1111.76</c:v>
+                  <c:v>1025.46</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1193.94</c:v>
+                  <c:v>884.3200000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1275.17</c:v>
+                  <c:v>895.9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1414.03</c:v>
+                  <c:v>963.72</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1463.5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1025.46</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>884.3200000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>895.9</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>963.72</c:v>
-                </c:pt>
-                <c:pt idx="31">
                   <c:v>1050.43</c:v>
                 </c:pt>
               </c:numCache>
@@ -3860,7 +3680,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -3971,7 +3791,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -4008,7 +3828,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -4045,7 +3865,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -4082,7 +3902,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -4547,7 +4367,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -4556,7 +4376,7 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="24.708252" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="0"/>
@@ -4583,15 +4403,10 @@
     <col min="26" max="26" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="27" max="27" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="28" max="28" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="29" max="29" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="30" max="30" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="31" max="31" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="32" max="32" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="33" max="33" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="34" max="34" width="9.10" bestFit="true" style="0"/>
+    <col min="29" max="29" width="9.10" bestFit="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4676,120 +4491,90 @@
       <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
       <c r="B2">
-        <v>0.5600000000000001</v>
+        <v>0.39</v>
       </c>
       <c r="C2">
+        <v>0.41</v>
+      </c>
+      <c r="D2">
+        <v>0.46</v>
+      </c>
+      <c r="E2">
+        <v>0.41</v>
+      </c>
+      <c r="F2">
         <v>0.38</v>
       </c>
-      <c r="D2">
+      <c r="G2">
+        <v>0.4</v>
+      </c>
+      <c r="H2">
+        <v>0.27</v>
+      </c>
+      <c r="I2">
+        <v>0.24</v>
+      </c>
+      <c r="J2">
+        <v>0.27</v>
+      </c>
+      <c r="K2">
+        <v>0.27</v>
+      </c>
+      <c r="L2">
+        <v>0.25</v>
+      </c>
+      <c r="M2">
+        <v>0.25</v>
+      </c>
+      <c r="N2">
+        <v>0.31</v>
+      </c>
+      <c r="O2">
+        <v>0.35</v>
+      </c>
+      <c r="P2">
+        <v>0.41</v>
+      </c>
+      <c r="Q2">
+        <v>0.38</v>
+      </c>
+      <c r="R2">
         <v>0.42</v>
       </c>
-      <c r="E2">
-        <v>0.4</v>
-      </c>
-      <c r="F2">
+      <c r="S2">
+        <v>0.37</v>
+      </c>
+      <c r="T2">
+        <v>0.41</v>
+      </c>
+      <c r="U2">
         <v>0.39</v>
       </c>
-      <c r="G2">
-        <v>0.39</v>
-      </c>
-      <c r="H2">
-        <v>0.41</v>
-      </c>
-      <c r="I2">
-        <v>0.46</v>
-      </c>
-      <c r="J2">
-        <v>0.41</v>
-      </c>
-      <c r="K2">
-        <v>0.38</v>
-      </c>
-      <c r="L2">
-        <v>0.4</v>
-      </c>
-      <c r="M2">
-        <v>0.27</v>
-      </c>
-      <c r="N2">
-        <v>0.24</v>
-      </c>
-      <c r="O2">
-        <v>0.27</v>
-      </c>
-      <c r="P2">
-        <v>0.27</v>
-      </c>
-      <c r="Q2">
-        <v>0.25</v>
-      </c>
-      <c r="R2">
-        <v>0.25</v>
-      </c>
-      <c r="S2">
-        <v>0.31</v>
-      </c>
-      <c r="T2">
-        <v>0.35</v>
-      </c>
-      <c r="U2">
-        <v>0.41</v>
-      </c>
       <c r="V2">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="W2">
-        <v>0.42</v>
+        <v>0.32</v>
       </c>
       <c r="X2">
         <v>0.37</v>
       </c>
       <c r="Y2">
+        <v>0.37</v>
+      </c>
+      <c r="Z2">
         <v>0.41</v>
       </c>
-      <c r="Z2">
-        <v>0.39</v>
-      </c>
       <c r="AA2">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="AB2">
-        <v>0.32</v>
-      </c>
-      <c r="AC2">
-        <v>0.37</v>
-      </c>
-      <c r="AD2">
-        <v>0.37</v>
-      </c>
-      <c r="AE2">
-        <v>0.41</v>
-      </c>
-      <c r="AF2">
-        <v>0.35</v>
-      </c>
-      <c r="AG2">
         <v>0.33</v>
       </c>
     </row>
@@ -4847,54 +4632,54 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>27</v>
-      </c>
-      <c r="L1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>13.75</v>
@@ -4944,7 +4729,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>499.66</v>
@@ -5046,54 +4831,54 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>27</v>
-      </c>
-      <c r="L1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>1009.82</v>
@@ -5143,7 +4928,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>5119.87</v>
@@ -5213,7 +4998,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -5249,15 +5034,10 @@
     <col min="26" max="26" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="27" max="27" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="28" max="28" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="29" max="29" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="30" max="30" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="31" max="31" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="32" max="32" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="33" max="33" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="34" max="34" width="9.10" bestFit="true" style="0"/>
+    <col min="29" max="29" width="9.10" bestFit="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5342,120 +5122,90 @@
       <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
       <c r="B2">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="C2">
-        <v>0.86</v>
+        <v>1.04</v>
       </c>
       <c r="D2">
-        <v>1.16</v>
+        <v>1.04</v>
       </c>
       <c r="E2">
-        <v>0.97</v>
+        <v>0.77</v>
       </c>
       <c r="F2">
         <v>0.78</v>
       </c>
       <c r="G2">
+        <v>0.76</v>
+      </c>
+      <c r="H2">
+        <v>0.92</v>
+      </c>
+      <c r="I2">
+        <v>1.14</v>
+      </c>
+      <c r="J2">
+        <v>1.58</v>
+      </c>
+      <c r="K2">
+        <v>1.58</v>
+      </c>
+      <c r="L2">
         <v>0.88</v>
       </c>
-      <c r="H2">
-        <v>1.04</v>
-      </c>
-      <c r="I2">
-        <v>1.04</v>
-      </c>
-      <c r="J2">
-        <v>0.77</v>
-      </c>
-      <c r="K2">
+      <c r="M2">
+        <v>0.76</v>
+      </c>
+      <c r="N2">
+        <v>0.63</v>
+      </c>
+      <c r="O2">
+        <v>0.87</v>
+      </c>
+      <c r="P2">
+        <v>1.15</v>
+      </c>
+      <c r="Q2">
+        <v>1.52</v>
+      </c>
+      <c r="R2">
+        <v>1.51</v>
+      </c>
+      <c r="S2">
         <v>0.78</v>
       </c>
-      <c r="L2">
-        <v>0.76</v>
-      </c>
-      <c r="M2">
+      <c r="T2">
+        <v>1.05</v>
+      </c>
+      <c r="U2">
         <v>0.92</v>
       </c>
-      <c r="N2">
-        <v>1.14</v>
-      </c>
-      <c r="O2">
-        <v>1.58</v>
-      </c>
-      <c r="P2">
-        <v>1.58</v>
-      </c>
-      <c r="Q2">
-        <v>0.88</v>
-      </c>
-      <c r="R2">
-        <v>0.76</v>
-      </c>
-      <c r="S2">
-        <v>0.63</v>
-      </c>
-      <c r="T2">
-        <v>0.87</v>
-      </c>
-      <c r="U2">
-        <v>1.15</v>
-      </c>
       <c r="V2">
-        <v>1.52</v>
+        <v>0.89</v>
       </c>
       <c r="W2">
-        <v>1.51</v>
+        <v>1.02</v>
       </c>
       <c r="X2">
+        <v>1.75</v>
+      </c>
+      <c r="Y2">
+        <v>2.06</v>
+      </c>
+      <c r="Z2">
         <v>0.78</v>
-      </c>
-      <c r="Y2">
-        <v>1.05</v>
-      </c>
-      <c r="Z2">
-        <v>0.92</v>
       </c>
       <c r="AA2">
         <v>0.89</v>
       </c>
       <c r="AB2">
-        <v>1.02</v>
-      </c>
-      <c r="AC2">
-        <v>1.75</v>
-      </c>
-      <c r="AD2">
-        <v>2.06</v>
-      </c>
-      <c r="AE2">
-        <v>0.78</v>
-      </c>
-      <c r="AF2">
-        <v>0.89</v>
-      </c>
-      <c r="AG2">
         <v>1.26</v>
       </c>
     </row>
@@ -5481,7 +5231,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -5490,24 +5240,24 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="24.708252" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="22.280273" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="20" max="20" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854004" bestFit="true" customWidth="true" style="0"/>
@@ -5517,15 +5267,10 @@
     <col min="26" max="26" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="27" max="27" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="28" max="28" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="29" max="29" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="30" max="30" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="31" max="31" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="32" max="32" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="33" max="33" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="34" max="34" width="9.10" bestFit="true" style="0"/>
+    <col min="29" max="29" width="9.10" bestFit="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5610,120 +5355,90 @@
       <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
       <c r="B2">
-        <v>1.15</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C2">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="D2">
+        <v>0.96</v>
+      </c>
+      <c r="E2">
+        <v>0.66</v>
+      </c>
+      <c r="F2">
+        <v>0.79</v>
+      </c>
+      <c r="G2">
+        <v>0.8</v>
+      </c>
+      <c r="H2">
+        <v>0.84</v>
+      </c>
+      <c r="I2">
+        <v>0.9</v>
+      </c>
+      <c r="J2">
+        <v>1.42</v>
+      </c>
+      <c r="K2">
+        <v>1.3</v>
+      </c>
+      <c r="L2">
+        <v>0.82</v>
+      </c>
+      <c r="M2">
+        <v>0.78</v>
+      </c>
+      <c r="N2">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O2">
+        <v>0.92</v>
+      </c>
+      <c r="P2">
+        <v>1.1</v>
+      </c>
+      <c r="Q2">
+        <v>1.65</v>
+      </c>
+      <c r="R2">
+        <v>1.57</v>
+      </c>
+      <c r="S2">
+        <v>1.01</v>
+      </c>
+      <c r="T2">
+        <v>1.31</v>
+      </c>
+      <c r="U2">
+        <v>1.18</v>
+      </c>
+      <c r="V2">
         <v>0.97</v>
       </c>
-      <c r="E2">
-        <v>0.78</v>
-      </c>
-      <c r="F2">
-        <v>0.73</v>
-      </c>
-      <c r="G2">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="H2">
-        <v>0.86</v>
-      </c>
-      <c r="I2">
-        <v>0.96</v>
-      </c>
-      <c r="J2">
-        <v>0.66</v>
-      </c>
-      <c r="K2">
-        <v>0.79</v>
-      </c>
-      <c r="L2">
-        <v>0.8</v>
-      </c>
-      <c r="M2">
-        <v>0.84</v>
-      </c>
-      <c r="N2">
-        <v>0.9</v>
-      </c>
-      <c r="O2">
-        <v>1.42</v>
-      </c>
-      <c r="P2">
-        <v>1.3</v>
-      </c>
-      <c r="Q2">
+      <c r="W2">
+        <v>1.07</v>
+      </c>
+      <c r="X2">
+        <v>1.58</v>
+      </c>
+      <c r="Y2">
+        <v>2.49</v>
+      </c>
+      <c r="Z2">
         <v>0.82</v>
       </c>
-      <c r="R2">
-        <v>0.78</v>
-      </c>
-      <c r="S2">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="T2">
-        <v>0.92</v>
-      </c>
-      <c r="U2">
-        <v>1.1</v>
-      </c>
-      <c r="V2">
-        <v>1.65</v>
-      </c>
-      <c r="W2">
-        <v>1.57</v>
-      </c>
-      <c r="X2">
-        <v>1.01</v>
-      </c>
-      <c r="Y2">
-        <v>1.31</v>
-      </c>
-      <c r="Z2">
-        <v>1.18</v>
-      </c>
       <c r="AA2">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="AB2">
-        <v>1.07</v>
-      </c>
-      <c r="AC2">
-        <v>1.58</v>
-      </c>
-      <c r="AD2">
-        <v>2.49</v>
-      </c>
-      <c r="AE2">
-        <v>0.82</v>
-      </c>
-      <c r="AF2">
-        <v>0.91</v>
-      </c>
-      <c r="AG2">
         <v>0.91</v>
       </c>
     </row>
@@ -5749,7 +5464,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -5774,26 +5489,21 @@
     <col min="15" max="15" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="23.422852" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="20" max="20" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="23.422852" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="25" max="25" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="27" max="27" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="28" max="28" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="29" max="29" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="30" max="30" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="31" max="31" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="32" max="32" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="33" max="33" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="34" max="34" width="9.10" bestFit="true" style="0"/>
+    <col min="29" max="29" width="9.10" bestFit="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5878,120 +5588,90 @@
       <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
       <c r="B2">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="C2">
+        <v>0.15</v>
+      </c>
+      <c r="D2">
+        <v>0.01</v>
+      </c>
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0.88</v>
-      </c>
-      <c r="E2">
-        <v>0.48</v>
-      </c>
       <c r="F2">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="G2">
+        <v>0.33</v>
+      </c>
+      <c r="H2">
         <v>0.08</v>
       </c>
-      <c r="H2">
+      <c r="I2">
+        <v>0.17</v>
+      </c>
+      <c r="J2">
         <v>0.15</v>
       </c>
-      <c r="I2">
-        <v>0.01</v>
-      </c>
-      <c r="J2">
+      <c r="K2">
+        <v>0.11</v>
+      </c>
+      <c r="L2">
         <v>0</v>
       </c>
-      <c r="K2">
+      <c r="M2">
+        <v>0.33</v>
+      </c>
+      <c r="N2">
+        <v>0.47</v>
+      </c>
+      <c r="O2">
+        <v>1.26</v>
+      </c>
+      <c r="P2">
         <v>0.15</v>
       </c>
-      <c r="L2">
-        <v>0.33</v>
-      </c>
-      <c r="M2">
-        <v>0.08</v>
-      </c>
-      <c r="N2">
-        <v>0.17</v>
-      </c>
-      <c r="O2">
-        <v>0.15</v>
-      </c>
-      <c r="P2">
-        <v>0.11</v>
-      </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="R2">
-        <v>0.33</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S2">
-        <v>0.47</v>
+        <v>0.02</v>
       </c>
       <c r="T2">
-        <v>1.26</v>
+        <v>1.7</v>
       </c>
       <c r="U2">
         <v>0.15</v>
       </c>
       <c r="V2">
-        <v>0.23</v>
+        <v>1.4</v>
       </c>
       <c r="W2">
-        <v>0.07000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="X2">
-        <v>0.02</v>
+        <v>0.96</v>
       </c>
       <c r="Y2">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AB2">
-        <v>1.5</v>
-      </c>
-      <c r="AC2">
-        <v>0.96</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>2</v>
-      </c>
-      <c r="AG2">
         <v>0.35</v>
       </c>
     </row>
@@ -6017,7 +5697,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -6049,19 +5729,14 @@
     <col min="22" max="22" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="21.137695" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="27" max="27" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="28" max="28" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="29" max="29" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="30" max="30" width="21.137695" bestFit="true" customWidth="true" style="0"/>
-    <col min="31" max="31" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="32" max="32" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="33" max="33" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="34" max="34" width="9.10" bestFit="true" style="0"/>
+    <col min="29" max="29" width="9.10" bestFit="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6146,126 +5821,96 @@
       <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="B2">
+        <v>1282.63</v>
+      </c>
+      <c r="C2">
+        <v>1303.82</v>
+      </c>
+      <c r="D2">
+        <v>1288.25</v>
+      </c>
+      <c r="E2">
+        <v>1287.7</v>
+      </c>
+      <c r="F2">
+        <v>1311.16</v>
+      </c>
+      <c r="G2">
+        <v>1323.28</v>
+      </c>
+      <c r="H2">
+        <v>1309.55</v>
+      </c>
+      <c r="I2">
+        <v>1174.72</v>
+      </c>
+      <c r="J2">
+        <v>1235.03</v>
+      </c>
+      <c r="K2">
+        <v>1264.95</v>
+      </c>
+      <c r="L2">
+        <v>1326.8</v>
+      </c>
+      <c r="M2">
+        <v>1374.78</v>
+      </c>
+      <c r="N2">
+        <v>1410.46</v>
+      </c>
+      <c r="O2">
+        <v>1037.15</v>
+      </c>
+      <c r="P2">
+        <v>1152.7</v>
+      </c>
+      <c r="Q2">
+        <v>1159.56</v>
+      </c>
+      <c r="R2">
+        <v>1108.23</v>
+      </c>
+      <c r="S2">
+        <v>1111.76</v>
+      </c>
+      <c r="T2">
+        <v>1193.94</v>
+      </c>
+      <c r="U2">
+        <v>1275.17</v>
+      </c>
+      <c r="V2">
+        <v>1414.03</v>
+      </c>
+      <c r="W2">
+        <v>1463.5</v>
+      </c>
+      <c r="X2">
+        <v>1025.46</v>
+      </c>
+      <c r="Y2">
+        <v>884.3200000000001</v>
+      </c>
+      <c r="Z2">
+        <v>895.9</v>
+      </c>
+      <c r="AA2">
+        <v>963.72</v>
+      </c>
+      <c r="AB2">
+        <v>1050.43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" t="s">
         <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2">
-        <v>1392.35</v>
-      </c>
-      <c r="C2">
-        <v>1394.72</v>
-      </c>
-      <c r="D2">
-        <v>1322.08</v>
-      </c>
-      <c r="E2">
-        <v>1238.61</v>
-      </c>
-      <c r="F2">
-        <v>1236.29</v>
-      </c>
-      <c r="G2">
-        <v>1282.63</v>
-      </c>
-      <c r="H2">
-        <v>1303.82</v>
-      </c>
-      <c r="I2">
-        <v>1288.25</v>
-      </c>
-      <c r="J2">
-        <v>1287.7</v>
-      </c>
-      <c r="K2">
-        <v>1311.16</v>
-      </c>
-      <c r="L2">
-        <v>1323.28</v>
-      </c>
-      <c r="M2">
-        <v>1309.55</v>
-      </c>
-      <c r="N2">
-        <v>1174.72</v>
-      </c>
-      <c r="O2">
-        <v>1235.03</v>
-      </c>
-      <c r="P2">
-        <v>1264.95</v>
-      </c>
-      <c r="Q2">
-        <v>1326.8</v>
-      </c>
-      <c r="R2">
-        <v>1374.78</v>
-      </c>
-      <c r="S2">
-        <v>1410.46</v>
-      </c>
-      <c r="T2">
-        <v>1037.15</v>
-      </c>
-      <c r="U2">
-        <v>1152.7</v>
-      </c>
-      <c r="V2">
-        <v>1159.56</v>
-      </c>
-      <c r="W2">
-        <v>1108.23</v>
-      </c>
-      <c r="X2">
-        <v>1111.76</v>
-      </c>
-      <c r="Y2">
-        <v>1193.94</v>
-      </c>
-      <c r="Z2">
-        <v>1275.17</v>
-      </c>
-      <c r="AA2">
-        <v>1414.03</v>
-      </c>
-      <c r="AB2">
-        <v>1463.5</v>
-      </c>
-      <c r="AC2">
-        <v>1025.46</v>
-      </c>
-      <c r="AD2">
-        <v>884.3200000000001</v>
-      </c>
-      <c r="AE2">
-        <v>895.9</v>
-      </c>
-      <c r="AF2">
-        <v>963.72</v>
-      </c>
-      <c r="AG2">
-        <v>1050.43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34">
-      <c r="A3" t="s">
-        <v>36</v>
       </c>
       <c r="B3">
         <v>11839.65</v>
@@ -6346,21 +5991,6 @@
         <v>11839.65</v>
       </c>
       <c r="AB3">
-        <v>11839.65</v>
-      </c>
-      <c r="AC3">
-        <v>11839.65</v>
-      </c>
-      <c r="AD3">
-        <v>11839.65</v>
-      </c>
-      <c r="AE3">
-        <v>11839.65</v>
-      </c>
-      <c r="AF3">
-        <v>11839.65</v>
-      </c>
-      <c r="AG3">
         <v>11839.65</v>
       </c>
     </row>
@@ -6418,54 +6048,54 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>27</v>
-      </c>
-      <c r="L1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>1112.73</v>
@@ -6515,7 +6145,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>10111.64</v>
@@ -6617,54 +6247,54 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>27</v>
-      </c>
-      <c r="L1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -6766,54 +6396,54 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>27</v>
-      </c>
-      <c r="L1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>1112.73</v>
@@ -6863,7 +6493,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>10111.64</v>
@@ -6965,54 +6595,54 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>27</v>
-      </c>
-      <c r="L1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>12.32</v>
@@ -7062,7 +6692,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>499.66</v>
